--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-420\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-421\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="216">
   <si>
     <t>R-CTRL</t>
   </si>
@@ -98,15 +98,9 @@
     <t>Q</t>
   </si>
   <si>
-    <t>CamTxlateFWD</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>CamTxlateBWD</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>ReqDock</t>
-  </si>
-  <si>
     <t>FighterDefence</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
     <t>SCB/ZoomIn</t>
   </si>
   <si>
-    <t>Chaff/FSSStepZoomIn</t>
-  </si>
-  <si>
     <t>Heatsink/FSSStepZoomOut</t>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <t>Next Contact</t>
   </si>
   <si>
-    <t>Previous Contact</t>
-  </si>
-  <si>
     <t>Next Hostile</t>
   </si>
   <si>
@@ -668,7 +653,25 @@
     <t>SecondaryFire (ALT)</t>
   </si>
   <si>
-    <t>Standard Unmodified Keys - v4.2.0</t>
+    <t>Swap Roll/Yaw</t>
+  </si>
+  <si>
+    <t>Previous Ship</t>
+  </si>
+  <si>
+    <t>Chaff/CameraBlurIn</t>
+  </si>
+  <si>
+    <t>FighterDock</t>
+  </si>
+  <si>
+    <t>RollLeft/CamTxlateFWD</t>
+  </si>
+  <si>
+    <t>RollRight/CamTxlateBWD</t>
+  </si>
+  <si>
+    <t>Standard Unmodified Keys - v4.2.1</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1334,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
@@ -1345,7 +1348,7 @@
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1361,146 +1364,148 @@
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4">
         <v>7</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -1508,75 +1513,75 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -1584,343 +1589,343 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="18" t="s">
         <v>9</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="7"/>
@@ -1958,19 +1963,19 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
@@ -1980,25 +1985,25 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="G22" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
@@ -2008,25 +2013,25 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>206</v>
-      </c>
+      <c r="G23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
@@ -2037,19 +2042,19 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="G24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
@@ -2064,16 +2069,16 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="G25" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
@@ -2085,19 +2090,19 @@
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G26" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
@@ -2109,19 +2114,19 @@
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
@@ -2132,19 +2137,19 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
@@ -2156,19 +2161,19 @@
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="4"/>
@@ -2185,14 +2190,14 @@
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="F30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
@@ -2207,16 +2212,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
       <c r="L31" s="4"/>
@@ -2228,12 +2233,12 @@
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="5"/>
       <c r="H32" s="9"/>
       <c r="I32" s="5"/>
@@ -2251,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
@@ -2269,14 +2274,14 @@
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="4"/>
       <c r="K34" s="5"/>
       <c r="L34" s="4"/>
@@ -2288,19 +2293,19 @@
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
       <c r="K35" s="5"/>
       <c r="L35" s="4"/>
@@ -2313,14 +2318,14 @@
       <c r="C36" s="5"/>
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="F36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
       <c r="L36" s="4"/>
@@ -2332,17 +2337,17 @@
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E37" s="22"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="4"/>
       <c r="K37" s="5"/>
       <c r="L37" s="4"/>
@@ -2354,19 +2359,19 @@
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="4"/>
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
@@ -2378,19 +2383,19 @@
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
@@ -2403,14 +2408,14 @@
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="4"/>
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
@@ -2422,19 +2427,19 @@
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="4"/>
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
@@ -2446,19 +2451,19 @@
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
       <c r="L42" s="4"/>
@@ -2471,14 +2476,14 @@
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4">
+      <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="G43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
       <c r="L43" s="4"/>
@@ -2491,13 +2496,13 @@
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="H44" s="4">
+      <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="G44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
       <c r="L44" s="4"/>
@@ -2510,14 +2515,14 @@
       <c r="C45" s="8"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="F45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
       <c r="L45" s="4"/>
@@ -2530,14 +2535,14 @@
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="F46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="11"/>
       <c r="K46" s="13"/>
       <c r="L46" s="11"/>
@@ -2550,14 +2555,14 @@
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="F47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="11"/>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
